--- a/penilaian-vendor.xlsx
+++ b/penilaian-vendor.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/pengadaan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030568D9-9A80-6E4A-A8ED-08E5EC050FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC1FC2-6866-324D-B432-75ADC6BD6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{499571E5-AD5B-B642-A5F7-EE2E3B63406A}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21040" activeTab="1" xr2:uid="{499571E5-AD5B-B642-A5F7-EE2E3B63406A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GRAFIK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>NO</t>
   </si>
@@ -74,6 +75,15 @@
   </si>
   <si>
     <t>NILAI KONTRAK</t>
+  </si>
+  <si>
+    <t>SELESAI</t>
+  </si>
+  <si>
+    <t>SUDAH DINILAI</t>
+  </si>
+  <si>
+    <t>BELUM DINILAI</t>
   </si>
 </sst>
 </file>
@@ -145,14 +155,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,43 +480,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCAAD8B-A36D-B049-A293-EAC862CA2080}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="38.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="26.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="26.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -548,4 +558,46 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23101A3-A470-D240-9D1A-6C7508447A03}">
+  <dimension ref="B6:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>